--- a/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
+++ b/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23805" windowHeight="8010"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -30,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H3")</t>
+          <t>jx:area(lastCell="H4")</t>
         </r>
       </text>
     </comment>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>货号</t>
   </si>
@@ -115,6 +119,17 @@
   </si>
   <si>
     <t>兑换机构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -122,10 +137,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d\ h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +185,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,26 +234,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -250,7 +344,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -529,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,22 +638,22 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,11 +675,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -607,9 +701,25 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
+++ b/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23805" windowHeight="8010"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -123,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -217,14 +221,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,22 +548,22 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,11 +585,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -607,7 +611,7 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
+++ b/src/main/resources/template/excel/export/GiftExchangeRecode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H4")</t>
+          <t>jx:area(lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>货号</t>
   </si>
@@ -119,17 +119,6 @@
   </si>
   <si>
     <t>兑换机构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -137,11 +126,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +173,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,83 +229,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,7 +254,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -623,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,22 +615,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
